--- a/Parte2y3.xlsx
+++ b/Parte2y3.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\Master\Cuatrimestre II\Biometria y Tablas\Trabajos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="14580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tasas mortalidad" sheetId="3" r:id="rId1"/>
     <sheet name="Fecundidad" sheetId="4" r:id="rId2"/>
+    <sheet name="Proyeccion" sheetId="5" r:id="rId3"/>
+    <sheet name="Tasa neta de reproduccion" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="71">
   <si>
     <t>Hombres</t>
   </si>
@@ -173,25 +180,88 @@
   </si>
   <si>
     <t>N Medio de Mujeres</t>
+  </si>
+  <si>
+    <t>Tasas de reproduccion</t>
+  </si>
+  <si>
+    <t>Tasas de fecundidad</t>
+  </si>
+  <si>
+    <t>TBR</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Nacimiento</t>
+  </si>
+  <si>
+    <t>Ncimientos</t>
+  </si>
+  <si>
+    <t>Poblacion 2015</t>
+  </si>
+  <si>
+    <t>Poblacion 2020</t>
+  </si>
+  <si>
+    <t>Inicial</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Tasa Especifica</t>
+  </si>
+  <si>
+    <t>Nacimientos en 5 años</t>
+  </si>
+  <si>
+    <t>Varones</t>
+  </si>
+  <si>
+    <t>$Z_x$</t>
+  </si>
+  <si>
+    <t>5Lx</t>
+  </si>
+  <si>
+    <t>TEF</t>
+  </si>
+  <si>
+    <t>TEF ajust</t>
+  </si>
+  <si>
+    <t>Poblacion fem</t>
+  </si>
+  <si>
+    <t>Nacimientos fem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.00000000_ ;_ * \-#,##0.00000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="_ * #,##0.00000000_ ;_ * \-#,##0.00000000_ ;_ * &quot;-&quot;????????_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;????????_ ;_ @_ "/>
-    <numFmt numFmtId="171" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??????_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??????_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.0000000_ ;_ * \-#,##0.0000000_ ;_ * &quot;-&quot;??????_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="15">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.00000000_ ;_ * \-#,##0.00000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0.00000000_ ;_ * \-#,##0.00000000_ ;_ * &quot;-&quot;????????_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;????????_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??????_ ;_ @_ "/>
+    <numFmt numFmtId="173" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
+    <numFmt numFmtId="174" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??????_ ;_ @_ "/>
+    <numFmt numFmtId="175" formatCode="_ * #,##0.0000000_ ;_ * \-#,##0.0000000_ ;_ * &quot;-&quot;??????_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="185" formatCode="0.000000"/>
+    <numFmt numFmtId="192" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -225,15 +295,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -289,6 +365,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -360,7 +562,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -516,7 +718,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -530,28 +732,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="69" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="69" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="69" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="69" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="69" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="69" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="69" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="69" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="69" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="69" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="69" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="69" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="69" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -560,237 +852,267 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="224">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="134" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="136" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="138" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="140" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="142" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="144" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="146" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="148" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="150" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="152" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="154" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="156" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="158" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="160" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="162" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="164" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="166" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="168" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="170" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="172" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="174" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="176" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="178" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="180" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="182" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="184" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="186" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="188" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="190" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="192" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="194" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="196" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="198" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="200" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="202" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="204" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="206" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="208" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="210" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="212" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="214" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="216" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="218" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="220" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="222" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="Millares" xfId="69" builtinId="3"/>
+    <cellStyle name="Comma" xfId="69" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1118,90 +1440,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V28" sqref="U28:V28"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" customWidth="1"/>
+    <col min="10" max="11" width="10.77734375" customWidth="1"/>
     <col min="12" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
     <col min="21" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:24">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="I3" s="5"/>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="23"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26" t="s">
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="26"/>
+      <c r="R3" s="64"/>
       <c r="S3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="T3" s="5"/>
-      <c r="U3" s="22" t="s">
+      <c r="U3" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="23"/>
-      <c r="W3" s="24" t="s">
+      <c r="V3" s="61"/>
+      <c r="W3" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="24"/>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="X3" s="62"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1270,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1352,7 +1674,7 @@
         <v>343.86560805577074</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1422,7 +1744,7 @@
         <v>185.73107805114532</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1492,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1562,7 +1884,7 @@
         <v>50.416719640447432</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1632,7 +1954,7 @@
         <v>74.843276419777951</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1702,7 +2024,7 @@
         <v>75.868559187061166</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1772,7 +2094,7 @@
         <v>127.84491920722706</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1842,7 +2164,7 @@
         <v>362.98717519612728</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1912,7 +2234,7 @@
         <v>650.39300658514912</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1982,7 +2304,7 @@
         <v>1299.2116804153761</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2052,7 +2374,7 @@
         <v>2118.2179341817082</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2122,7 +2444,7 @@
         <v>3680.508559265068</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2192,7 +2514,7 @@
         <v>5279.643697923555</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2262,7 +2584,7 @@
         <v>5739.9648031203569</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2332,7 +2654,7 @@
         <v>7774.3432580864383</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2402,7 +2724,7 @@
         <v>10196.447547743055</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2472,7 +2794,7 @@
         <v>17404.421347928324</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2542,7 +2864,7 @@
         <v>37304.072906503381</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2612,7 +2934,7 @@
         <v>123708.44923724355</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <f t="shared" ref="B24:G24" si="6">SUM(B5:B23)</f>
         <v>22826549</v>
@@ -2678,7 +3000,7 @@
         <v>216377.23131475353</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V25" t="s">
         <v>33</v>
       </c>
@@ -2687,45 +3009,45 @@
         <v>9.0887402771602606</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
-      <c r="B27" s="25" t="s">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B27" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25" t="s">
+      <c r="C27" s="63"/>
+      <c r="D27" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25" t="s">
+      <c r="E27" s="63"/>
+      <c r="F27" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25" t="s">
+      <c r="G27" s="63"/>
+      <c r="H27" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25" t="s">
+      <c r="I27" s="63"/>
+      <c r="J27" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25" t="s">
+      <c r="K27" s="63"/>
+      <c r="L27" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25" t="s">
+      <c r="M27" s="63"/>
+      <c r="N27" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25" t="s">
+      <c r="O27" s="63"/>
+      <c r="P27" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25" t="s">
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="S27" s="25"/>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="S27" s="63"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>0</v>
       </c>
@@ -2789,7 +3111,7 @@
         <v>1842765</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2853,16 +3175,16 @@
         <f>+O29/I29</f>
         <v>85.445046864145738</v>
       </c>
-      <c r="R29" s="28">
+      <c r="R29" s="23">
         <f>+(L30+L29)/(5*H29)</f>
         <v>0.99699356729630073</v>
       </c>
-      <c r="S29" s="28">
+      <c r="S29" s="23">
         <f>+(M30+M29)/(5*I29)</f>
         <v>0.99795774605123988</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2928,16 +3250,16 @@
         <f t="shared" ref="Q30:Q47" si="13">+O30/I30</f>
         <v>84.588266656329552</v>
       </c>
-      <c r="R30" s="28">
+      <c r="R30" s="23">
         <f>+L31/(L30+L29)</f>
         <v>0.99977764823326842</v>
       </c>
-      <c r="S30" s="28">
+      <c r="S30" s="23">
         <f>+M31/(M30+M29)</f>
         <v>0.99951891675427473</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -3003,16 +3325,16 @@
         <f t="shared" si="13"/>
         <v>80.658708005148654</v>
       </c>
-      <c r="R31" s="28">
+      <c r="R31" s="23">
         <f t="shared" ref="R31:S47" si="16">+L32/L31</f>
         <v>0.99969274438630906</v>
       </c>
-      <c r="S31" s="28">
+      <c r="S31" s="23">
         <f t="shared" si="16"/>
         <v>0.99988848868717739</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -3078,16 +3400,16 @@
         <f t="shared" si="13"/>
         <v>75.658708005148654</v>
       </c>
-      <c r="R32" s="28">
+      <c r="R32" s="23">
         <f t="shared" si="16"/>
         <v>0.99906694821014508</v>
       </c>
-      <c r="S32" s="28">
+      <c r="S32" s="23">
         <f t="shared" si="16"/>
         <v>0.99971079621566994</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -3153,16 +3475,16 @@
         <f t="shared" si="13"/>
         <v>70.675027691956188</v>
       </c>
-      <c r="R33" s="28">
+      <c r="R33" s="23">
         <f t="shared" si="16"/>
         <v>0.99857858708478098</v>
       </c>
-      <c r="S33" s="28">
+      <c r="S33" s="23">
         <f t="shared" si="16"/>
         <v>0.99965408610939888</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -3228,16 +3550,16 @@
         <f t="shared" si="13"/>
         <v>65.699265690945992</v>
       </c>
-      <c r="R34" s="28">
+      <c r="R34" s="23">
         <f t="shared" si="16"/>
         <v>0.99857571639669063</v>
       </c>
-      <c r="S34" s="28">
+      <c r="S34" s="23">
         <f t="shared" si="16"/>
         <v>0.99958584183350763</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -3303,16 +3625,16 @@
         <f t="shared" si="13"/>
         <v>60.720534640507125</v>
       </c>
-      <c r="R35" s="28">
+      <c r="R35" s="23">
         <f t="shared" si="16"/>
         <v>0.99798596175492327</v>
       </c>
-      <c r="S35" s="28">
+      <c r="S35" s="23">
         <f t="shared" si="16"/>
         <v>0.99918300489382861</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -3378,16 +3700,16 @@
         <f t="shared" si="13"/>
         <v>55.749188452600727</v>
       </c>
-      <c r="R36" s="28">
+      <c r="R36" s="23">
         <f t="shared" si="16"/>
         <v>0.99721419664582633</v>
       </c>
-      <c r="S36" s="28">
+      <c r="S36" s="23">
         <f t="shared" si="16"/>
         <v>0.99858203173457016</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -3453,16 +3775,16 @@
         <f t="shared" si="13"/>
         <v>50.810080954935707</v>
       </c>
-      <c r="R37" s="28">
+      <c r="R37" s="23">
         <f t="shared" si="16"/>
         <v>0.99513781925559208</v>
       </c>
-      <c r="S37" s="28">
+      <c r="S37" s="23">
         <f t="shared" si="16"/>
         <v>0.99746199103181754</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -3528,16 +3850,16 @@
         <f t="shared" si="13"/>
         <v>45.892058041699485</v>
       </c>
-      <c r="R38" s="28">
+      <c r="R38" s="23">
         <f t="shared" si="16"/>
         <v>0.99081239772911411</v>
       </c>
-      <c r="S38" s="28">
+      <c r="S38" s="23">
         <f t="shared" si="16"/>
         <v>0.99543122478585011</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -3603,16 +3925,16 @@
         <f t="shared" si="13"/>
         <v>41.039370482854373</v>
       </c>
-      <c r="R39" s="28">
+      <c r="R39" s="23">
         <f t="shared" si="16"/>
         <v>0.98431279295774066</v>
       </c>
-      <c r="S39" s="28">
+      <c r="S39" s="23">
         <f t="shared" si="16"/>
         <v>0.99181611403548975</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -3678,16 +4000,16 @@
         <f t="shared" si="13"/>
         <v>36.262570944732502</v>
       </c>
-      <c r="R40" s="28">
+      <c r="R40" s="23">
         <f t="shared" si="16"/>
         <v>0.97534912303060206</v>
       </c>
-      <c r="S40" s="28">
+      <c r="S40" s="23">
         <f t="shared" si="16"/>
         <v>0.98618184010943932</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -3753,16 +4075,16 @@
         <f t="shared" si="13"/>
         <v>31.625105027337863</v>
       </c>
-      <c r="R41" s="28">
+      <c r="R41" s="23">
         <f t="shared" si="16"/>
         <v>0.96083396524424169</v>
       </c>
-      <c r="S41" s="28">
+      <c r="S41" s="23">
         <f t="shared" si="16"/>
         <v>0.9806117883705523</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -3828,16 +4150,16 @@
         <f t="shared" si="13"/>
         <v>27.130209570234598</v>
       </c>
-      <c r="R42" s="28">
+      <c r="R42" s="23">
         <f t="shared" si="16"/>
         <v>0.94063653798224822</v>
       </c>
-      <c r="S42" s="28">
+      <c r="S42" s="23">
         <f t="shared" si="16"/>
         <v>0.97365962492271563</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -3903,16 +4225,16 @@
         <f t="shared" si="13"/>
         <v>22.678344193282214</v>
       </c>
-      <c r="R43" s="28">
+      <c r="R43" s="23">
         <f t="shared" si="16"/>
         <v>0.91446288247611351</v>
       </c>
-      <c r="S43" s="28">
+      <c r="S43" s="23">
         <f t="shared" si="16"/>
         <v>0.96099630775785572</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -3978,16 +4300,16 @@
         <f t="shared" si="13"/>
         <v>18.324150620235006</v>
       </c>
-      <c r="R44" s="28">
+      <c r="R44" s="23">
         <f t="shared" si="16"/>
         <v>0.86325922307228387</v>
       </c>
-      <c r="S44" s="28">
+      <c r="S44" s="23">
         <f t="shared" si="16"/>
         <v>0.93013953285596362</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -4053,16 +4375,16 @@
         <f t="shared" si="13"/>
         <v>14.108935583720474</v>
       </c>
-      <c r="R45" s="28">
+      <c r="R45" s="23">
         <f t="shared" si="16"/>
         <v>0.77428952665454798</v>
       </c>
-      <c r="S45" s="28">
+      <c r="S45" s="23">
         <f t="shared" si="16"/>
         <v>0.8571153205929074</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -4128,16 +4450,16 @@
         <f t="shared" si="13"/>
         <v>10.307619585915214</v>
       </c>
-      <c r="R46" s="28">
+      <c r="R46" s="23">
         <f>+L47/(L47+L46)</f>
         <v>0.52609524486567361</v>
       </c>
-      <c r="S46" s="28">
+      <c r="S46" s="23">
         <f>+M47/(M47+M46)</f>
         <v>0.56276705873904231</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -4203,11 +4525,11 @@
         <f t="shared" si="13"/>
         <v>7.2263051191079573</v>
       </c>
-      <c r="R47" s="27">
+      <c r="R47" s="22">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S47" s="27">
+      <c r="S47" s="22">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -4245,19 +4567,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K37"/>
+  <dimension ref="A2:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="30"/>
+    <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="30"/>
+    <col min="13" max="13" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="G2" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -4279,8 +4619,19 @@
       <c r="I3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4308,8 +4659,23 @@
         <f>5*H4/1000</f>
         <v>4.739504958707063E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="32">
+        <f>+(19+15)/2</f>
+        <v>17</v>
+      </c>
+      <c r="N4" s="32">
+        <v>9.4790099174141265</v>
+      </c>
+      <c r="O4" s="32">
+        <f>+M4*N4</f>
+        <v>161.14316859604014</v>
+      </c>
+      <c r="P4" s="32"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4337,8 +4703,23 @@
         <f t="shared" ref="I5:I10" si="2">5*H5/1000</f>
         <v>0.13649924852509027</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="32">
+        <f>+M4+5</f>
+        <v>22</v>
+      </c>
+      <c r="N5" s="32">
+        <v>27.299849705018058</v>
+      </c>
+      <c r="O5" s="32">
+        <f t="shared" ref="O5:O10" si="3">+M5*N5</f>
+        <v>600.59669351039724</v>
+      </c>
+      <c r="P5" s="32"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4366,8 +4747,23 @@
         <f t="shared" si="2"/>
         <v>0.29099175342951056</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="32">
+        <f t="shared" ref="M6:M10" si="4">+M5+5</f>
+        <v>27</v>
+      </c>
+      <c r="N6" s="32">
+        <v>58.198350685902106</v>
+      </c>
+      <c r="O6" s="32">
+        <f t="shared" si="3"/>
+        <v>1571.3554685193569</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4395,8 +4791,23 @@
         <f t="shared" si="2"/>
         <v>0.46801146150517975</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="32">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="N7" s="32">
+        <v>93.602292301035945</v>
+      </c>
+      <c r="O7" s="32">
+        <f t="shared" si="3"/>
+        <v>2995.2733536331502</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -4424,8 +4835,23 @@
         <f t="shared" si="2"/>
         <v>0.30131635165103454</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="32">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="N8" s="32">
+        <v>60.263270330206915</v>
+      </c>
+      <c r="O8" s="32">
+        <f t="shared" si="3"/>
+        <v>2229.7410022176559</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -4453,8 +4879,23 @@
         <f t="shared" si="2"/>
         <v>7.2799246249889843E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="32">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="N9" s="32">
+        <v>14.559849249977971</v>
+      </c>
+      <c r="O9" s="32">
+        <f t="shared" si="3"/>
+        <v>611.51366849907481</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -4482,8 +4923,23 @@
         <f t="shared" si="2"/>
         <v>5.4930737973337461E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="32">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="N10" s="32">
+        <v>1.0986147594667492</v>
+      </c>
+      <c r="O10" s="32">
+        <f t="shared" si="3"/>
+        <v>51.634893694937212</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -4492,11 +4948,11 @@
         <v>419564</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:D11" si="3">SUM(C4:C10)</f>
+        <f t="shared" ref="C11:D11" si="5">SUM(C4:C10)</f>
         <v>415085</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15902</v>
       </c>
       <c r="E11">
@@ -4514,8 +4970,30 @@
         <f>SUM(I4:I10)</f>
         <v>1.3225061847451094</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="L11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32">
+        <f>SUM(N4:N10)</f>
+        <v>264.50123694902186</v>
+      </c>
+      <c r="O11" s="32">
+        <f>SUM(O4:O10)</f>
+        <v>8221.2582486706124</v>
+      </c>
+      <c r="P11" s="32">
+        <f>+O11/N11</f>
+        <v>31.082116452465289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>45</v>
       </c>
@@ -4527,322 +5005,500 @@
         <f>+E11/1000</f>
         <v>0.26450123694902183</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>1842171</v>
       </c>
       <c r="C16">
         <v>1842765</v>
       </c>
-    </row>
-    <row r="17" spans="7:11">
-      <c r="G17" t="s">
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="L16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="32">
+        <v>188</v>
+      </c>
+      <c r="N16" s="32">
+        <f t="shared" ref="N16:N22" si="6">+ROUND((B4+C4)/2,0)</f>
+        <v>42199</v>
+      </c>
+      <c r="O16" s="32">
+        <f>1000*M16/N16</f>
+        <v>4.455081873978056</v>
+      </c>
+      <c r="P16" s="32">
+        <f>5*O16/1000</f>
+        <v>2.2275409369890281E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="G17" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="L17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="32">
+        <v>572</v>
+      </c>
+      <c r="N17" s="32">
+        <f t="shared" si="6"/>
+        <v>44579</v>
+      </c>
+      <c r="O17" s="32">
+        <f t="shared" ref="O17:O21" si="7">1000*M17/N17</f>
+        <v>12.831153682227058</v>
+      </c>
+      <c r="P17" s="32">
+        <f t="shared" ref="P17:P22" si="8">5*O17/1000</f>
+        <v>6.4155768411135281E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="B18" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="7:11">
-      <c r="G18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18">
-        <f>+(19+15)/2</f>
-        <v>17</v>
-      </c>
-      <c r="I18">
-        <v>9.4790099174141265</v>
-      </c>
-      <c r="J18">
-        <f>+H18*I18</f>
-        <v>161.14316859604014</v>
-      </c>
-    </row>
-    <row r="19" spans="7:11">
-      <c r="G19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19">
-        <f>+H18+5</f>
-        <v>22</v>
-      </c>
-      <c r="I19">
-        <v>27.299849705018058</v>
-      </c>
-      <c r="J19">
-        <f t="shared" ref="J19:J24" si="4">+H19*I19</f>
-        <v>600.59669351039724</v>
-      </c>
-    </row>
-    <row r="20" spans="7:11">
-      <c r="G20" t="s">
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" t="s">
         <v>10</v>
       </c>
-      <c r="H20">
-        <f t="shared" ref="H20:H24" si="5">+H19+5</f>
-        <v>27</v>
-      </c>
-      <c r="I20">
-        <v>58.198350685902106</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="4"/>
-        <v>1571.3554685193569</v>
-      </c>
-    </row>
-    <row r="21" spans="7:11">
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="I21">
-        <v>93.602292301035945</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="4"/>
-        <v>2995.2733536331502</v>
-      </c>
-    </row>
-    <row r="22" spans="7:11">
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="I22">
-        <v>60.263270330206915</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="4"/>
-        <v>2229.7410022176559</v>
-      </c>
-    </row>
-    <row r="23" spans="7:11">
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="I23">
-        <v>14.559849249977971</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="4"/>
-        <v>611.51366849907481</v>
-      </c>
-    </row>
-    <row r="24" spans="7:11">
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-      <c r="I24">
-        <v>1.0986147594667492</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="4"/>
-        <v>51.634893694937212</v>
-      </c>
-    </row>
-    <row r="25" spans="7:11">
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
-      <c r="I25">
-        <f>SUM(I18:I24)</f>
-        <v>264.50123694902186</v>
-      </c>
-      <c r="J25">
-        <f>SUM(J18:J24)</f>
-        <v>8221.2582486706124</v>
-      </c>
-      <c r="K25">
-        <f>+J25/I25</f>
-        <v>31.082116452465289</v>
-      </c>
-    </row>
-    <row r="29" spans="7:11">
-      <c r="G29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" t="s">
-        <v>46</v>
-      </c>
-      <c r="K29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="7:11">
-      <c r="G30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30">
-        <v>188</v>
-      </c>
-      <c r="I30">
-        <f>+ROUND((B4+C4)/2,0)</f>
-        <v>42199</v>
-      </c>
-      <c r="J30">
-        <f>1000*H30/I30</f>
-        <v>4.455081873978056</v>
-      </c>
-      <c r="K30">
-        <f>5*J30/1000</f>
-        <v>2.2275409369890281E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="7:11">
-      <c r="G31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31">
-        <v>572</v>
-      </c>
-      <c r="I31">
-        <f t="shared" ref="I31:I36" si="6">+ROUND((B5+C5)/2,0)</f>
-        <v>44579</v>
-      </c>
-      <c r="J31">
-        <f t="shared" ref="J31:J36" si="7">1000*H31/I31</f>
-        <v>12.831153682227058</v>
-      </c>
-      <c r="K31">
-        <f t="shared" ref="K31:K36" si="8">5*J31/1000</f>
-        <v>6.4155768411135281E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="7:11">
-      <c r="G32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32">
+      <c r="M18" s="32">
         <v>1416</v>
       </c>
-      <c r="I32">
+      <c r="N18" s="32">
         <f t="shared" si="6"/>
         <v>50809</v>
       </c>
-      <c r="J32">
+      <c r="O18" s="32">
         <f t="shared" si="7"/>
         <v>27.869078312897322</v>
       </c>
-      <c r="K32">
+      <c r="P18" s="32">
         <f t="shared" si="8"/>
         <v>0.13934539156448661</v>
       </c>
     </row>
-    <row r="33" spans="7:11">
-      <c r="G33" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3">
+        <v>92296</v>
+      </c>
+      <c r="C19" s="3">
+        <v>93458</v>
+      </c>
+      <c r="D19" s="2">
+        <v>400</v>
+      </c>
+      <c r="E19">
+        <f>2000*D19/(B19+C19)</f>
+        <v>4.306771321209772</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <f>+E19</f>
+        <v>4.306771321209772</v>
+      </c>
+      <c r="I19">
+        <f>5*H19/1000</f>
+        <v>2.1533856606048861E-2</v>
+      </c>
+      <c r="L19" t="s">
         <v>11</v>
       </c>
-      <c r="H33">
+      <c r="M19" s="32">
         <v>2781</v>
       </c>
-      <c r="I33">
+      <c r="N19" s="32">
         <f t="shared" si="6"/>
         <v>61249</v>
       </c>
-      <c r="J33">
+      <c r="O19" s="32">
         <f t="shared" si="7"/>
         <v>45.404822935884667</v>
       </c>
-      <c r="K33">
+      <c r="P19" s="32">
         <f t="shared" si="8"/>
         <v>0.22702411467942335</v>
       </c>
     </row>
-    <row r="34" spans="7:11">
-      <c r="G34" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3">
+        <v>86536</v>
+      </c>
+      <c r="C20" s="3">
+        <v>87444</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1217</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E26" si="9">2000*D20/(B20+C20)</f>
+        <v>13.990113806184619</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:H25" si="10">+E20</f>
+        <v>13.990113806184619</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20:I25" si="11">5*H20/1000</f>
+        <v>6.9950569030923088E-2</v>
+      </c>
+      <c r="L20" t="s">
         <v>12</v>
       </c>
-      <c r="H34">
+      <c r="M20" s="32">
         <v>2121</v>
       </c>
-      <c r="I34">
+      <c r="N20" s="32">
         <f t="shared" si="6"/>
         <v>73727</v>
       </c>
-      <c r="J34">
+      <c r="O20" s="32">
         <f t="shared" si="7"/>
         <v>28.768293840791028</v>
       </c>
-      <c r="K34">
+      <c r="P20" s="32">
         <f t="shared" si="8"/>
         <v>0.14384146920395513</v>
       </c>
     </row>
-    <row r="35" spans="7:11">
-      <c r="G35" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="3">
+        <v>92215</v>
+      </c>
+      <c r="C21" s="3">
+        <v>90224</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2957</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="9"/>
+        <v>32.416314494159693</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="10"/>
+        <v>32.416314494159693</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="11"/>
+        <v>0.16208157247079844</v>
+      </c>
+      <c r="L21" t="s">
         <v>13</v>
       </c>
-      <c r="H35">
+      <c r="M21" s="32">
         <v>504</v>
       </c>
-      <c r="I35">
+      <c r="N21" s="32">
         <f t="shared" si="6"/>
         <v>73765</v>
       </c>
-      <c r="J35">
+      <c r="O21" s="32">
         <f t="shared" si="7"/>
         <v>6.8325086423100387</v>
       </c>
-      <c r="K35">
+      <c r="P21" s="32">
         <f t="shared" si="8"/>
         <v>3.4162543211550191E-2</v>
       </c>
     </row>
-    <row r="36" spans="7:11">
-      <c r="G36" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3">
+        <v>103485</v>
+      </c>
+      <c r="C22" s="3">
+        <v>101084</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5733</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="9"/>
+        <v>56.049548074243901</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="10"/>
+        <v>56.049548074243901</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="11"/>
+        <v>0.28024774037121947</v>
+      </c>
+      <c r="L22" t="s">
         <v>14</v>
       </c>
-      <c r="H36">
+      <c r="M22" s="32">
         <v>46</v>
       </c>
-      <c r="I36">
+      <c r="N22" s="32">
         <f t="shared" si="6"/>
         <v>70999</v>
       </c>
-      <c r="J36">
-        <f>1000*H36/I36</f>
+      <c r="O22" s="32">
+        <f>1000*M22/N22</f>
         <v>0.64789644924576406</v>
       </c>
-      <c r="K36">
+      <c r="P22" s="32">
         <f t="shared" si="8"/>
         <v>3.23948224622882E-3</v>
       </c>
     </row>
-    <row r="37" spans="7:11">
-      <c r="G37" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3">
+        <v>126530</v>
+      </c>
+      <c r="C23" s="3">
+        <v>120178</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4443</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="9"/>
+        <v>36.018288827277594</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="10"/>
+        <v>36.018288827277594</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="11"/>
+        <v>0.18009144413638797</v>
+      </c>
+      <c r="L23" t="s">
         <v>44</v>
       </c>
-      <c r="K37">
-        <f>SUM(K30:K36)</f>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23">
+        <f>SUM(P16:P22)</f>
         <v>0.63404417868666962</v>
       </c>
     </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3">
+        <v>153322</v>
+      </c>
+      <c r="C24" s="3">
+        <v>150604</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1074</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="9"/>
+        <v>7.0675098543724459</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="10"/>
+        <v>7.0675098543724459</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="11"/>
+        <v>3.533754927186223E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3">
+        <v>151480</v>
+      </c>
+      <c r="C25" s="3">
+        <v>153005</v>
+      </c>
+      <c r="D25" s="2">
+        <v>78</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="9"/>
+        <v>0.51234050938469877</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="10"/>
+        <v>0.51234050938469877</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="11"/>
+        <v>2.5617025469234938E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <f>SUM(B19:B25)</f>
+        <v>805864</v>
+      </c>
+      <c r="C26" s="1">
+        <f>SUM(C19:C25)</f>
+        <v>795997</v>
+      </c>
+      <c r="D26" s="1">
+        <f>SUM(D19:D25)</f>
+        <v>15902</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="9"/>
+        <v>19.854406843040689</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26">
+        <f>SUM(H19:H25)</f>
+        <v>150.36088688683273</v>
+      </c>
+      <c r="I26">
+        <f>SUM(I19:I25)</f>
+        <v>0.75180443443416356</v>
+      </c>
+      <c r="M26" s="1">
+        <f>-SUM(M16:M22)+D11</f>
+        <v>8274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -4851,4 +5507,1176 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="G1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
+    </row>
+    <row r="2" spans="1:10" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7767.6656643374681</v>
+      </c>
+      <c r="C3">
+        <v>0.99698383123010759</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="G3" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7256.8327192939978</v>
+      </c>
+      <c r="I3" s="33">
+        <v>0.99832417214622238</v>
+      </c>
+      <c r="J3" s="37"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="38">
+        <v>8209</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0.99699356729630073</v>
+      </c>
+      <c r="D4" s="37">
+        <f>B3*C3</f>
+        <v>7744.2370737457277</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="38">
+        <v>7829</v>
+      </c>
+      <c r="I4" s="29">
+        <v>0.99795200231199988</v>
+      </c>
+      <c r="J4" s="37">
+        <f>H3*I3</f>
+        <v>7244.6715168928004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="38">
+        <v>35682</v>
+      </c>
+      <c r="C5" s="35">
+        <v>0.99977764823326831</v>
+      </c>
+      <c r="D5" s="37">
+        <f>C4*B4</f>
+        <v>8184.320193935333</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="38">
+        <v>33253</v>
+      </c>
+      <c r="I5" s="35">
+        <v>0.99951700852257097</v>
+      </c>
+      <c r="J5" s="37">
+        <f>I4*H4</f>
+        <v>7812.966226100647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="38">
+        <v>50463</v>
+      </c>
+      <c r="C6" s="35">
+        <v>0.99969274438630917</v>
+      </c>
+      <c r="D6" s="37">
+        <f t="shared" ref="D6:D21" si="0">C5*B5</f>
+        <v>35674.066044259482</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="38">
+        <v>47405</v>
+      </c>
+      <c r="I6" s="35">
+        <v>0.99988972099411511</v>
+      </c>
+      <c r="J6" s="37">
+        <f t="shared" ref="J6:J21" si="1">I5*H5</f>
+        <v>33236.939084401056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="38">
+        <v>47851</v>
+      </c>
+      <c r="C7" s="35">
+        <v>0.99906694821014508</v>
+      </c>
+      <c r="D7" s="37">
+        <f t="shared" si="0"/>
+        <v>50447.494959966323</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="38">
+        <v>44445</v>
+      </c>
+      <c r="I7" s="35">
+        <v>0.99971424560840616</v>
+      </c>
+      <c r="J7" s="37">
+        <f t="shared" si="1"/>
+        <v>47399.772223726024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="38">
+        <v>44480</v>
+      </c>
+      <c r="C8" s="35">
+        <v>0.99857858708478098</v>
+      </c>
+      <c r="D8" s="37">
+        <f t="shared" si="0"/>
+        <v>47806.352538803651</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="38">
+        <v>42056</v>
+      </c>
+      <c r="I8" s="35">
+        <v>0.99965398791465032</v>
+      </c>
+      <c r="J8" s="37">
+        <f t="shared" si="1"/>
+        <v>44432.299646065614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="38">
+        <v>47148</v>
+      </c>
+      <c r="C9" s="35">
+        <v>0.99857389308325961</v>
+      </c>
+      <c r="D9" s="37">
+        <f t="shared" si="0"/>
+        <v>44416.775553531057</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="38">
+        <v>45067</v>
+      </c>
+      <c r="I9" s="35">
+        <v>0.99958363849788812</v>
+      </c>
+      <c r="J9" s="37">
+        <f t="shared" si="1"/>
+        <v>42041.448115738531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="38">
+        <v>51985</v>
+      </c>
+      <c r="C10" s="35">
+        <v>0.9979841368580602</v>
+      </c>
+      <c r="D10" s="37">
+        <f t="shared" si="0"/>
+        <v>47080.761911089525</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="38">
+        <v>51500</v>
+      </c>
+      <c r="I10" s="35">
+        <v>0.99918198561699867</v>
+      </c>
+      <c r="J10" s="37">
+        <f t="shared" si="1"/>
+        <v>45048.235836184322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="38">
+        <v>63813</v>
+      </c>
+      <c r="C11" s="35">
+        <v>0.99721419664582645</v>
+      </c>
+      <c r="D11" s="37">
+        <f t="shared" si="0"/>
+        <v>51880.205354566257</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="38">
+        <v>62717</v>
+      </c>
+      <c r="I11" s="35">
+        <v>0.99857860371672524</v>
+      </c>
+      <c r="J11" s="37">
+        <f t="shared" si="1"/>
+        <v>51457.872259275435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="38">
+        <v>79194</v>
+      </c>
+      <c r="C12" s="35">
+        <v>0.99513781925559208</v>
+      </c>
+      <c r="D12" s="37">
+        <f t="shared" si="0"/>
+        <v>63635.229530560122</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="38">
+        <v>74128</v>
+      </c>
+      <c r="I12" s="35">
+        <v>0.99745997575660028</v>
+      </c>
+      <c r="J12" s="37">
+        <f t="shared" si="1"/>
+        <v>62627.85428930186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="38">
+        <v>78038</v>
+      </c>
+      <c r="C13" s="35">
+        <v>0.99081239772911411</v>
+      </c>
+      <c r="D13" s="37">
+        <f t="shared" si="0"/>
+        <v>78808.944458127356</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="38">
+        <v>73442</v>
+      </c>
+      <c r="I13" s="35">
+        <v>0.99543144136512163</v>
+      </c>
+      <c r="J13" s="37">
+        <f t="shared" si="1"/>
+        <v>73939.713082885268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="38">
+        <v>72878</v>
+      </c>
+      <c r="C14" s="35">
+        <v>0.98431279295774088</v>
+      </c>
+      <c r="D14" s="37">
+        <f t="shared" si="0"/>
+        <v>77321.017893984608</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="38">
+        <v>70654</v>
+      </c>
+      <c r="I14" s="35">
+        <v>0.99181382531432682</v>
+      </c>
+      <c r="J14" s="37">
+        <f t="shared" si="1"/>
+        <v>73106.475916737269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="38">
+        <v>67128</v>
+      </c>
+      <c r="C15" s="35">
+        <v>0.97534912303060195</v>
+      </c>
+      <c r="D15" s="37">
+        <f t="shared" si="0"/>
+        <v>71734.747725174238</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="38">
+        <v>66465</v>
+      </c>
+      <c r="I15" s="35">
+        <v>0.98617906941110378</v>
+      </c>
+      <c r="J15" s="37">
+        <f t="shared" si="1"/>
+        <v>70075.614013758444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="38">
+        <v>57401</v>
+      </c>
+      <c r="C16" s="35">
+        <v>0.96083396524424169</v>
+      </c>
+      <c r="D16" s="37">
+        <f t="shared" si="0"/>
+        <v>65473.235930798248</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="38">
+        <v>59770</v>
+      </c>
+      <c r="I16" s="35">
+        <v>0.98060947566862089</v>
+      </c>
+      <c r="J16" s="37">
+        <f t="shared" si="1"/>
+        <v>65546.39184840901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="38">
+        <v>49958</v>
+      </c>
+      <c r="C17" s="35">
+        <v>0.94063653798224811</v>
+      </c>
+      <c r="D17" s="37">
+        <f t="shared" si="0"/>
+        <v>55152.830438984718</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="38">
+        <v>53523</v>
+      </c>
+      <c r="I17" s="35">
+        <v>0.97365585718812719</v>
+      </c>
+      <c r="J17" s="37">
+        <f t="shared" si="1"/>
+        <v>58611.02836071347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="38">
+        <v>50189</v>
+      </c>
+      <c r="C18" s="35">
+        <v>0.91446288247611374</v>
+      </c>
+      <c r="D18" s="37">
+        <f t="shared" si="0"/>
+        <v>46992.32016451715</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="38">
+        <v>54608</v>
+      </c>
+      <c r="I18" s="35">
+        <v>0.96099310015622286</v>
+      </c>
+      <c r="J18" s="37">
+        <f t="shared" si="1"/>
+        <v>52112.982444280133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="38">
+        <v>42842</v>
+      </c>
+      <c r="C19" s="35">
+        <v>0.86325922307228375</v>
+      </c>
+      <c r="D19" s="37">
+        <f t="shared" si="0"/>
+        <v>45895.977608593676</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="38">
+        <v>46260</v>
+      </c>
+      <c r="I19" s="35">
+        <v>0.93013699403367556</v>
+      </c>
+      <c r="J19" s="37">
+        <f t="shared" si="1"/>
+        <v>52477.911213331019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="38">
+        <v>30995</v>
+      </c>
+      <c r="C20" s="35">
+        <v>0.77428952665454798</v>
+      </c>
+      <c r="D20" s="37">
+        <f t="shared" si="0"/>
+        <v>36983.751634862783</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="38">
+        <v>35384</v>
+      </c>
+      <c r="I20" s="35">
+        <v>0.85710991358384314</v>
+      </c>
+      <c r="J20" s="37">
+        <f t="shared" si="1"/>
+        <v>43028.137343997834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="38">
+        <v>22398</v>
+      </c>
+      <c r="C21" s="35">
+        <v>0.52609524486567361</v>
+      </c>
+      <c r="D21" s="37">
+        <f t="shared" si="0"/>
+        <v>23999.103878657716</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="38">
+        <v>29674</v>
+      </c>
+      <c r="I21" s="35">
+        <v>0.56276560467352399</v>
+      </c>
+      <c r="J21" s="37">
+        <f t="shared" si="1"/>
+        <v>30327.977182250706</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="38">
+        <v>15402</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="37">
+        <f>(B22+B21)*C21</f>
+        <v>19886.400255922461</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="38">
+        <v>27937</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="37">
+        <f>(H22+H21)*I21</f>
+        <v>32421.489250846389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="47">
+        <f>SUM(B4:B22)</f>
+        <v>916054</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49">
+        <f>SUM(D5:D22)</f>
+        <v>871373.53607633454</v>
+      </c>
+      <c r="E23" s="1">
+        <f>D23-B23</f>
+        <v>-44680.463923665462</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="47">
+        <f>SUM(H4:H22)</f>
+        <v>926117</v>
+      </c>
+      <c r="I23" s="48"/>
+      <c r="J23" s="49">
+        <f>SUM(J5:J22)</f>
+        <v>885705.10833800316</v>
+      </c>
+      <c r="K23" s="1">
+        <f>J23-H23</f>
+        <v>-40411.891661996837</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="K24" s="1">
+        <f>K23+E23</f>
+        <v>-85092.355585662299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="34">
+        <v>42056</v>
+      </c>
+      <c r="D27" s="38">
+        <v>44432.299646065614</v>
+      </c>
+      <c r="E27" s="38">
+        <f>(D27+C27)/2</f>
+        <v>43244.149823032807</v>
+      </c>
+      <c r="F27" s="53">
+        <v>9.4790099174141265</v>
+      </c>
+      <c r="G27" s="54">
+        <f>F27*E27</f>
+        <v>409911.72504267032</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="34">
+        <v>45067</v>
+      </c>
+      <c r="D28" s="38">
+        <v>42041.448115738531</v>
+      </c>
+      <c r="E28" s="38">
+        <f t="shared" ref="E28:E33" si="2">(D28+C28)/2</f>
+        <v>43554.224057869265</v>
+      </c>
+      <c r="F28" s="53">
+        <v>27.299849705018058</v>
+      </c>
+      <c r="G28" s="54">
+        <f t="shared" ref="G28:G33" si="3">F28*E28</f>
+        <v>1189023.7707985127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="34">
+        <v>51500</v>
+      </c>
+      <c r="D29" s="38">
+        <v>45048.235836184322</v>
+      </c>
+      <c r="E29" s="38">
+        <f t="shared" si="2"/>
+        <v>48274.117918092161</v>
+      </c>
+      <c r="F29" s="53">
+        <v>58.198350685902106</v>
+      </c>
+      <c r="G29" s="54">
+        <f t="shared" si="3"/>
+        <v>2809474.0436497182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="34">
+        <v>62717</v>
+      </c>
+      <c r="D30" s="38">
+        <v>51457.872259275435</v>
+      </c>
+      <c r="E30" s="38">
+        <f t="shared" si="2"/>
+        <v>57087.436129637717</v>
+      </c>
+      <c r="F30" s="53">
+        <v>93.602292301035945</v>
+      </c>
+      <c r="G30" s="54">
+        <f t="shared" si="3"/>
+        <v>5343514.8833230697</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="34">
+        <v>74128</v>
+      </c>
+      <c r="D31" s="38">
+        <v>62627.85428930186</v>
+      </c>
+      <c r="E31" s="38">
+        <f t="shared" si="2"/>
+        <v>68377.927144650923</v>
+      </c>
+      <c r="F31" s="53">
+        <v>60.263270330206915</v>
+      </c>
+      <c r="G31" s="54">
+        <f t="shared" si="3"/>
+        <v>4120677.5081372918</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="34">
+        <v>73442</v>
+      </c>
+      <c r="D32" s="38">
+        <v>73939.713082885268</v>
+      </c>
+      <c r="E32" s="38">
+        <f t="shared" si="2"/>
+        <v>73690.856541442627</v>
+      </c>
+      <c r="F32" s="53">
+        <v>14.559849249977971</v>
+      </c>
+      <c r="G32" s="54">
+        <f t="shared" si="3"/>
+        <v>1072927.7623451576</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="56">
+        <v>70654</v>
+      </c>
+      <c r="D33" s="39">
+        <v>73106.475916737269</v>
+      </c>
+      <c r="E33" s="39">
+        <f t="shared" si="2"/>
+        <v>71880.237958368642</v>
+      </c>
+      <c r="F33" s="57">
+        <v>1.0986147594667492</v>
+      </c>
+      <c r="G33" s="58">
+        <f t="shared" si="3"/>
+        <v>78968.69033504586</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="59">
+        <f>SUM(G27:G33)/1000</f>
+        <v>15024.498383631466</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F36" s="1">
+        <f>0.517*G34</f>
+        <v>7767.6656643374681</v>
+      </c>
+      <c r="G36" s="1">
+        <f>0.483*G34</f>
+        <v>7256.8327192939978</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="71">
+        <v>0.99707500000000004</v>
+      </c>
+      <c r="D5" s="24">
+        <v>42199</v>
+      </c>
+      <c r="E5" s="24">
+        <v>188</v>
+      </c>
+      <c r="F5" s="72">
+        <f>E5*1000/D5</f>
+        <v>4.455081873978056</v>
+      </c>
+      <c r="G5" s="71">
+        <f>C5*F5</f>
+        <v>4.4420507594966701</v>
+      </c>
+      <c r="H5" s="71">
+        <f>5*G5/1000</f>
+        <v>2.2210253797483349E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="71">
+        <v>0.99673</v>
+      </c>
+      <c r="D6" s="24">
+        <v>44579</v>
+      </c>
+      <c r="E6" s="24">
+        <v>572</v>
+      </c>
+      <c r="F6" s="72">
+        <f t="shared" ref="F6:F12" si="0">E6*1000/D6</f>
+        <v>12.831153682227058</v>
+      </c>
+      <c r="G6" s="71">
+        <f t="shared" ref="G6:G13" si="1">C6*F6</f>
+        <v>12.789195809686175</v>
+      </c>
+      <c r="H6" s="71">
+        <f t="shared" ref="H6:H11" si="2">5*G6/1000</f>
+        <v>6.3945979048430884E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="71">
+        <v>0.99631499999999995</v>
+      </c>
+      <c r="D7" s="24">
+        <v>50809</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1416</v>
+      </c>
+      <c r="F7" s="72">
+        <f t="shared" si="0"/>
+        <v>27.869078312897322</v>
+      </c>
+      <c r="G7" s="71">
+        <f t="shared" si="1"/>
+        <v>27.766380759314295</v>
+      </c>
+      <c r="H7" s="71">
+        <f t="shared" si="2"/>
+        <v>0.13883190379657148</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="71">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="D8" s="24">
+        <v>61249</v>
+      </c>
+      <c r="E8" s="24">
+        <v>2781</v>
+      </c>
+      <c r="F8" s="72">
+        <f t="shared" si="0"/>
+        <v>45.404822935884667</v>
+      </c>
+      <c r="G8" s="71">
+        <f t="shared" si="1"/>
+        <v>45.20050123267319</v>
+      </c>
+      <c r="H8" s="71">
+        <f t="shared" si="2"/>
+        <v>0.22600250616336595</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="71">
+        <v>0.994085</v>
+      </c>
+      <c r="D9" s="24">
+        <v>73727</v>
+      </c>
+      <c r="E9" s="24">
+        <v>2121</v>
+      </c>
+      <c r="F9" s="72">
+        <f t="shared" si="0"/>
+        <v>28.768293840791028</v>
+      </c>
+      <c r="G9" s="71">
+        <f t="shared" si="1"/>
+        <v>28.59812938272275</v>
+      </c>
+      <c r="H9" s="71">
+        <f t="shared" si="2"/>
+        <v>0.14299064691361374</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="71">
+        <v>0.99156</v>
+      </c>
+      <c r="D10" s="24">
+        <v>73765</v>
+      </c>
+      <c r="E10" s="24">
+        <v>504</v>
+      </c>
+      <c r="F10" s="72">
+        <f t="shared" si="0"/>
+        <v>6.8325086423100387</v>
+      </c>
+      <c r="G10" s="71">
+        <f t="shared" si="1"/>
+        <v>6.7748422693689418</v>
+      </c>
+      <c r="H10" s="71">
+        <f t="shared" si="2"/>
+        <v>3.3874211346844707E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="71">
+        <v>0.98702999999999996</v>
+      </c>
+      <c r="D11" s="24">
+        <v>70999</v>
+      </c>
+      <c r="E11" s="24">
+        <v>46</v>
+      </c>
+      <c r="F11" s="72">
+        <f t="shared" si="0"/>
+        <v>0.64789644924576406</v>
+      </c>
+      <c r="G11" s="71">
+        <f t="shared" si="1"/>
+        <v>0.63949323229904653</v>
+      </c>
+      <c r="H11" s="71">
+        <f t="shared" si="2"/>
+        <v>3.1974661614952325E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70">
+        <f>SUM(H5:H11)</f>
+        <v>0.63105296722780524</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="70"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f>C5/500000</f>
+        <v>1.9941500000000002E-6</v>
+      </c>
+      <c r="F16">
+        <f>E5*1000/D5</f>
+        <v>4.455081873978056</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <f t="shared" ref="C17:C22" si="3">C6/500000</f>
+        <v>1.9934599999999998E-6</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F20" si="4">E6*1000/D6</f>
+        <v>12.831153682227058</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <f t="shared" si="3"/>
+        <v>1.9926299999999998E-6</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>27.869078312897322</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>1.9910000000000001E-6</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>45.404822935884667</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>1.9881699999999999E-6</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>28.768293840791028</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>1.9831199999999998E-6</v>
+      </c>
+      <c r="F21">
+        <f>E10*1000/D10</f>
+        <v>6.8325086423100387</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>1.97406E-6</v>
+      </c>
+      <c r="F22">
+        <f>E11*1000/D11</f>
+        <v>0.64789644924576406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Parte2y3.xlsx
+++ b/Parte2y3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="14580" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="14580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tasas mortalidad" sheetId="3" r:id="rId1"/>
@@ -260,8 +260,8 @@
     <numFmt numFmtId="174" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??????_ ;_ @_ "/>
     <numFmt numFmtId="175" formatCode="_ * #,##0.0000000_ ;_ * \-#,##0.0000000_ ;_ * &quot;-&quot;??????_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00000"/>
-    <numFmt numFmtId="185" formatCode="0.000000"/>
-    <numFmt numFmtId="192" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.000000"/>
+    <numFmt numFmtId="178" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -718,7 +718,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -816,9 +816,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -828,14 +825,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -847,9 +856,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -864,18 +870,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="224">
     <cellStyle name="Comma" xfId="69" builtinId="3"/>
@@ -1456,72 +1451,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="64" t="s">
+      <c r="M2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="64"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="I3" s="5"/>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="61"/>
+      <c r="K3" s="64"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64" t="s">
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="64"/>
+      <c r="R3" s="62"/>
       <c r="S3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="T3" s="5"/>
-      <c r="U3" s="60" t="s">
+      <c r="U3" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="61"/>
-      <c r="W3" s="62" t="s">
+      <c r="V3" s="64"/>
+      <c r="W3" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="62"/>
+      <c r="X3" s="65"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -3010,42 +3005,42 @@
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63" t="s">
+      <c r="C27" s="66"/>
+      <c r="D27" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63" t="s">
+      <c r="E27" s="66"/>
+      <c r="F27" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63" t="s">
+      <c r="G27" s="66"/>
+      <c r="H27" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63" t="s">
+      <c r="I27" s="66"/>
+      <c r="J27" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63" t="s">
+      <c r="K27" s="66"/>
+      <c r="L27" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63" t="s">
+      <c r="M27" s="66"/>
+      <c r="N27" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63" t="s">
+      <c r="O27" s="66"/>
+      <c r="P27" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63" t="s">
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="S27" s="63"/>
+      <c r="S27" s="66"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
@@ -4536,11 +4531,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="J3:K3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="B27:C27"/>
@@ -4554,6 +4544,11 @@
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="P27:Q27"/>
     <mergeCell ref="R27:S27"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4569,8 +4564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:M22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4586,16 +4581,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="G2" s="65" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="G2" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -5063,16 +5058,16 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="G17" s="65" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="G17" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
       <c r="L17" t="s">
         <v>9</v>
       </c>
@@ -5513,31 +5508,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-      <c r="G1" s="66" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="G1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
     </row>
     <row r="2" spans="1:10" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="43"/>
@@ -6175,6 +6171,9 @@
       <c r="G26" s="51" t="s">
         <v>63</v>
       </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" s="40" t="s">
@@ -6190,12 +6189,15 @@
         <f>(D27+C27)/2</f>
         <v>43244.149823032807</v>
       </c>
-      <c r="F27" s="53">
-        <v>9.4790099174141265</v>
-      </c>
-      <c r="G27" s="54">
+      <c r="F27">
+        <v>47.395049587070631</v>
+      </c>
+      <c r="G27" s="53">
         <f>F27*E27</f>
-        <v>409911.72504267032</v>
+        <v>2049558.6252133516</v>
+      </c>
+      <c r="I27" s="71">
+        <v>2049558.6252133516</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -6212,12 +6214,15 @@
         <f t="shared" ref="E28:E33" si="2">(D28+C28)/2</f>
         <v>43554.224057869265</v>
       </c>
-      <c r="F28" s="53">
-        <v>27.299849705018058</v>
-      </c>
-      <c r="G28" s="54">
+      <c r="F28">
+        <v>136.49924852509028</v>
+      </c>
+      <c r="G28" s="53">
         <f t="shared" ref="G28:G33" si="3">F28*E28</f>
-        <v>1189023.7707985127</v>
+        <v>5945118.8539925627</v>
+      </c>
+      <c r="I28" s="71">
+        <v>5945118.8539925637</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -6234,12 +6239,15 @@
         <f t="shared" si="2"/>
         <v>48274.117918092161</v>
       </c>
-      <c r="F29" s="53">
-        <v>58.198350685902106</v>
-      </c>
-      <c r="G29" s="54">
+      <c r="F29">
+        <v>290.99175342951054</v>
+      </c>
+      <c r="G29" s="53">
         <f t="shared" si="3"/>
-        <v>2809474.0436497182</v>
+        <v>14047370.218248591</v>
+      </c>
+      <c r="I29" s="71">
+        <v>14047370.218248591</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -6256,12 +6264,15 @@
         <f t="shared" si="2"/>
         <v>57087.436129637717</v>
       </c>
-      <c r="F30" s="53">
-        <v>93.602292301035945</v>
-      </c>
-      <c r="G30" s="54">
+      <c r="F30">
+        <v>468.01146150517974</v>
+      </c>
+      <c r="G30" s="53">
         <f t="shared" si="3"/>
-        <v>5343514.8833230697</v>
+        <v>26717574.416615348</v>
+      </c>
+      <c r="I30" s="71">
+        <v>26717574.416615348</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -6278,12 +6289,15 @@
         <f t="shared" si="2"/>
         <v>68377.927144650923</v>
       </c>
-      <c r="F31" s="53">
-        <v>60.263270330206915</v>
-      </c>
-      <c r="G31" s="54">
+      <c r="F31">
+        <v>301.31635165103455</v>
+      </c>
+      <c r="G31" s="53">
         <f t="shared" si="3"/>
-        <v>4120677.5081372918</v>
+        <v>20603387.540686458</v>
+      </c>
+      <c r="I31" s="71">
+        <v>20603387.540686458</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -6300,19 +6314,22 @@
         <f t="shared" si="2"/>
         <v>73690.856541442627</v>
       </c>
-      <c r="F32" s="53">
-        <v>14.559849249977971</v>
-      </c>
-      <c r="G32" s="54">
+      <c r="F32">
+        <v>72.799246249889848</v>
+      </c>
+      <c r="G32" s="53">
         <f t="shared" si="3"/>
-        <v>1072927.7623451576</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="55" t="s">
+        <v>5364638.8117257878</v>
+      </c>
+      <c r="I32" s="71">
+        <v>5364638.8117257878</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="56">
+      <c r="C33" s="55">
         <v>70654</v>
       </c>
       <c r="D33" s="39">
@@ -6322,26 +6339,29 @@
         <f t="shared" si="2"/>
         <v>71880.237958368642</v>
       </c>
-      <c r="F33" s="57">
-        <v>1.0986147594667492</v>
-      </c>
-      <c r="G33" s="58">
+      <c r="F33">
+        <v>5.4930737973337465</v>
+      </c>
+      <c r="G33" s="56">
         <f t="shared" si="3"/>
-        <v>78968.69033504586</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+        <v>394843.45167522936</v>
+      </c>
+      <c r="I33" s="71">
+        <v>394843.4516752293</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="59">
+      <c r="G34" s="57">
         <f>SUM(G27:G33)/1000</f>
-        <v>15024.498383631466</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+        <v>75122.491918157335</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
         <v>64</v>
       </c>
@@ -6349,14 +6369,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F36" s="1">
         <f>0.517*G34</f>
-        <v>7767.6656643374681</v>
+        <v>38838.328321687346</v>
       </c>
       <c r="G36" s="1">
         <f>0.483*G34</f>
-        <v>7256.8327192939978</v>
+        <v>36284.163596469989</v>
       </c>
     </row>
   </sheetData>
@@ -6372,8 +6392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6413,7 +6433,7 @@
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="60">
         <v>0.99707500000000004</v>
       </c>
       <c r="D5" s="24">
@@ -6422,15 +6442,15 @@
       <c r="E5" s="24">
         <v>188</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="61">
         <f>E5*1000/D5</f>
         <v>4.455081873978056</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="60">
         <f>C5*F5</f>
         <v>4.4420507594966701</v>
       </c>
-      <c r="H5" s="71">
+      <c r="H5" s="60">
         <f>5*G5/1000</f>
         <v>2.2210253797483349E-2</v>
       </c>
@@ -6439,7 +6459,7 @@
       <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="60">
         <v>0.99673</v>
       </c>
       <c r="D6" s="24">
@@ -6448,15 +6468,15 @@
       <c r="E6" s="24">
         <v>572</v>
       </c>
-      <c r="F6" s="72">
-        <f t="shared" ref="F6:F12" si="0">E6*1000/D6</f>
+      <c r="F6" s="61">
+        <f t="shared" ref="F6:F11" si="0">E6*1000/D6</f>
         <v>12.831153682227058</v>
       </c>
-      <c r="G6" s="71">
-        <f t="shared" ref="G6:G13" si="1">C6*F6</f>
+      <c r="G6" s="60">
+        <f t="shared" ref="G6:G11" si="1">C6*F6</f>
         <v>12.789195809686175</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="60">
         <f t="shared" ref="H6:H11" si="2">5*G6/1000</f>
         <v>6.3945979048430884E-2</v>
       </c>
@@ -6465,7 +6485,7 @@
       <c r="B7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="60">
         <v>0.99631499999999995</v>
       </c>
       <c r="D7" s="24">
@@ -6474,15 +6494,15 @@
       <c r="E7" s="24">
         <v>1416</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="61">
         <f t="shared" si="0"/>
         <v>27.869078312897322</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="60">
         <f t="shared" si="1"/>
         <v>27.766380759314295</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H7" s="60">
         <f t="shared" si="2"/>
         <v>0.13883190379657148</v>
       </c>
@@ -6491,7 +6511,7 @@
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="60">
         <v>0.99550000000000005</v>
       </c>
       <c r="D8" s="24">
@@ -6500,15 +6520,15 @@
       <c r="E8" s="24">
         <v>2781</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="61">
         <f t="shared" si="0"/>
         <v>45.404822935884667</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="60">
         <f t="shared" si="1"/>
         <v>45.20050123267319</v>
       </c>
-      <c r="H8" s="71">
+      <c r="H8" s="60">
         <f t="shared" si="2"/>
         <v>0.22600250616336595</v>
       </c>
@@ -6517,7 +6537,7 @@
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="60">
         <v>0.994085</v>
       </c>
       <c r="D9" s="24">
@@ -6526,15 +6546,15 @@
       <c r="E9" s="24">
         <v>2121</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="61">
         <f t="shared" si="0"/>
         <v>28.768293840791028</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="60">
         <f t="shared" si="1"/>
         <v>28.59812938272275</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="60">
         <f t="shared" si="2"/>
         <v>0.14299064691361374</v>
       </c>
@@ -6543,7 +6563,7 @@
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="71">
+      <c r="C10" s="60">
         <v>0.99156</v>
       </c>
       <c r="D10" s="24">
@@ -6552,15 +6572,15 @@
       <c r="E10" s="24">
         <v>504</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="61">
         <f t="shared" si="0"/>
         <v>6.8325086423100387</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="60">
         <f t="shared" si="1"/>
         <v>6.7748422693689418</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="60">
         <f t="shared" si="2"/>
         <v>3.3874211346844707E-2</v>
       </c>
@@ -6569,7 +6589,7 @@
       <c r="B11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="60">
         <v>0.98702999999999996</v>
       </c>
       <c r="D11" s="24">
@@ -6578,15 +6598,15 @@
       <c r="E11" s="24">
         <v>46</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="61">
         <f t="shared" si="0"/>
         <v>0.64789644924576406</v>
       </c>
-      <c r="G11" s="71">
+      <c r="G11" s="60">
         <f t="shared" si="1"/>
         <v>0.63949323229904653</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="60">
         <f t="shared" si="2"/>
         <v>3.1974661614952325E-3</v>
       </c>
@@ -6596,15 +6616,15 @@
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70">
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59">
         <f>SUM(H5:H11)</f>
         <v>0.63105296722780524</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G13" s="70"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C16">
